--- a/KnowledgeBaseFilkom.xlsx
+++ b/KnowledgeBaseFilkom.xlsx
@@ -4199,7 +4199,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4220,7 +4220,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4238,7 +4238,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4259,7 +4259,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4277,7 +4277,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4298,7 +4298,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4316,7 +4316,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4337,7 +4337,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4352,7 +4352,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4373,7 +4373,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4391,7 +4391,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4412,7 +4412,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4434,7 +4434,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4452,7 +4452,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4473,7 +4473,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4491,7 +4491,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4512,7 +4512,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4530,7 +4530,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4551,7 +4551,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4573,7 +4573,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4591,7 +4591,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4612,7 +4612,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4630,7 +4630,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4651,7 +4651,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4669,7 +4669,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4690,7 +4690,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4712,7 +4712,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4730,7 +4730,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4751,7 +4751,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4769,7 +4769,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4790,7 +4790,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4808,7 +4808,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4829,7 +4829,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4847,7 +4847,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4868,7 +4868,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4886,7 +4886,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4907,7 +4907,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4929,7 +4929,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4947,7 +4947,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4968,7 +4968,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -4986,7 +4986,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5007,7 +5007,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5662,7 +5662,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5683,7 +5683,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5705,7 +5705,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5786,7 +5786,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5808,7 +5808,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5829,7 +5829,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5851,7 +5851,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5896,7 +5896,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5929,7 +5929,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5964,7 +5964,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -5986,7 +5986,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6009,7 +6009,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6031,7 +6031,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6053,7 +6053,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6071,7 +6071,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6095,7 +6095,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6113,7 +6113,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6134,7 +6134,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6156,7 +6156,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6174,7 +6174,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6195,7 +6195,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6217,7 +6217,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6235,7 +6235,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6256,7 +6256,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6303,7 +6303,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6325,7 +6325,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6346,7 +6346,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6368,7 +6368,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6389,7 +6389,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6412,7 +6412,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6431,7 +6431,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6454,7 +6454,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6474,7 +6474,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6495,7 +6495,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6513,7 +6513,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6534,7 +6534,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6552,7 +6552,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6575,7 +6575,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6594,7 +6594,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6615,7 +6615,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6633,7 +6633,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6654,7 +6654,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6688,7 +6688,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6710,7 +6710,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6733,7 +6733,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6752,7 +6752,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6775,7 +6775,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6796,7 +6796,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6818,7 +6818,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6837,7 +6837,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6858,7 +6858,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6876,7 +6876,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6898,7 +6898,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6917,7 +6917,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6939,7 +6939,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6960,7 +6960,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6981,7 +6981,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6999,7 +6999,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7020,7 +7020,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7038,7 +7038,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7059,7 +7059,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7080,7 +7080,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7098,7 +7098,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7120,7 +7120,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7139,7 +7139,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7161,7 +7161,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7183,7 +7183,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7204,7 +7204,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7244,7 +7244,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7277,7 +7277,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7312,7 +7312,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7334,7 +7334,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7357,7 +7357,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7379,7 +7379,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7401,7 +7401,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7419,7 +7419,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7443,7 +7443,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7461,7 +7461,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7483,7 +7483,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7505,7 +7505,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7523,7 +7523,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7545,7 +7545,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7567,7 +7567,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7585,7 +7585,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7606,7 +7606,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7643,7 +7643,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7666,7 +7666,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7687,7 +7687,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7709,7 +7709,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7730,7 +7730,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7752,7 +7752,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7773,7 +7773,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7796,7 +7796,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7815,7 +7815,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7838,7 +7838,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7858,7 +7858,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7879,7 +7879,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7897,7 +7897,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7918,7 +7918,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7936,7 +7936,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7959,7 +7959,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -7978,7 +7978,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8007,7 +8007,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8028,7 +8028,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8063,7 +8063,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8085,7 +8085,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8106,7 +8106,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8129,7 +8129,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8150,7 +8150,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8172,7 +8172,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8191,7 +8191,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8212,7 +8212,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8230,7 +8230,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8252,7 +8252,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8271,7 +8271,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8293,7 +8293,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8314,7 +8314,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8335,7 +8335,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8353,7 +8353,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8374,7 +8374,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8392,7 +8392,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8414,7 +8414,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8436,7 +8436,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8454,7 +8454,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8476,7 +8476,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8495,7 +8495,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8517,7 +8517,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8536,7 +8536,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8557,7 +8557,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8579,7 +8579,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8601,7 +8601,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8623,7 +8623,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8645,7 +8645,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8663,7 +8663,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -8684,7 +8684,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -9854,7 +9854,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -9884,7 +9884,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -9973,7 +9973,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10003,7 +10003,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10033,7 +10033,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10063,7 +10063,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10155,7 +10155,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10214,7 +10214,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10252,7 +10252,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10273,7 +10273,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10357,7 +10357,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10387,7 +10387,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10417,7 +10417,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10447,7 +10447,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10477,7 +10477,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10517,7 +10517,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10548,7 +10548,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10588,7 +10588,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10628,7 +10628,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10671,7 +10671,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10711,7 +10711,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10751,7 +10751,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10791,7 +10791,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10831,7 +10831,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -10930,7 +10930,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -11097,7 +11097,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11121,10 +11121,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11472,7 +11472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="47.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33.75">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="47.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="H13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="47.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="116.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="289.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="295.5">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
